--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Trendline_06_07.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Trendline_06_07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649EB8DE-CEF1-4E15-B967-0C15F446D540}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC6A7C-5BE5-4A8B-8EB2-3BA9B37C0344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="256">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,12 +785,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Quantity</t>
   </si>
   <si>
@@ -798,6 +792,24 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Qtr1</t>
+  </si>
+  <si>
+    <t>Qtr2</t>
+  </si>
+  <si>
+    <t>Qtr3</t>
+  </si>
+  <si>
+    <t>Qtr4</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -840,13 +852,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -861,10 +876,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -891,7 +906,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -929,7 +944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -949,6 +964,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -985,31 +1038,92 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Qtr2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Qtr3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Qtr4</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$6</c:f>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1294</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1420</c:v>
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1185,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668968"/>
@@ -1127,7 +1241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668640"/>
@@ -1166,7 +1280,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1203,7 +1317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5459,8 +5573,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5549,8 +5663,8 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
+        <item x="1"/>
+        <item x="2"/>
         <item sd="0" x="3"/>
         <item t="default"/>
       </items>
@@ -5561,12 +5675,36 @@
     <field x="10"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="11">
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -5624,7 +5762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5920,47 +6058,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D49653-5E96-44B9-9360-CC4240B9B8F5}">
-  <dimension ref="A3:B6"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2">
         <v>1294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="2">
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="2">
         <v>2714</v>
       </c>
     </row>
@@ -5976,7 +6178,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
